--- a/spliced/falling/2023-03-25_18-01-29/data_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-01-29/data_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-3.674985194206238</v>
+        <v>-3.729709470272064</v>
       </c>
       <c r="D2" t="n">
-        <v>9.404587173461914</v>
+        <v>9.457800364494323</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3419130772352217</v>
+        <v>0.187229474633932</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.0395535230636596</v>
+        <v>0.0209221355617046</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0210748501121997</v>
+        <v>-0.0198531206697225</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.0496328026056289</v>
+        <v>-0.0239764600992202</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-3.945914745330811</v>
+        <v>-3.674985194206238</v>
       </c>
       <c r="D3" t="n">
-        <v>9.500829362869263</v>
+        <v>9.404587173461914</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6805746570229532</v>
+        <v>0.3419130772352217</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0119118718430399</v>
+        <v>-0.0395535230636596</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0239764600992202</v>
+        <v>0.0210748501121997</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.0226020142436027</v>
+        <v>-0.0496328026056289</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-3.8448965549469</v>
+        <v>-3.945914745330811</v>
       </c>
       <c r="D4" t="n">
-        <v>9.112732887268068</v>
+        <v>9.500829362869263</v>
       </c>
       <c r="E4" t="n">
-        <v>1.50640323758125</v>
+        <v>0.6805746570229532</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0048869219608604</v>
+        <v>0.0119118718430399</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.0102319931611418</v>
+        <v>0.0239764600992202</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0267253536731004</v>
+        <v>-0.0226020142436027</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-3.954125237464904</v>
+        <v>-3.8448965549469</v>
       </c>
       <c r="D5" t="n">
-        <v>8.554272603988649</v>
+        <v>9.112732887268068</v>
       </c>
       <c r="E5" t="n">
-        <v>2.520113927125929</v>
+        <v>1.50640323758125</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1745547503232956</v>
+        <v>0.0048869219608604</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1945605874061584</v>
+        <v>-0.0102319931611418</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0557414554059505</v>
+        <v>0.0267253536731004</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-4.40533800125122</v>
+        <v>-3.954125237464904</v>
       </c>
       <c r="D6" t="n">
-        <v>8.189027309417723</v>
+        <v>8.554272603988649</v>
       </c>
       <c r="E6" t="n">
-        <v>3.551703810691835</v>
+        <v>2.520113927125929</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1134682223200798</v>
+        <v>-0.1745547503232956</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6869179606437683</v>
+        <v>0.1945605874061584</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.2023491114377975</v>
+        <v>0.0557414554059505</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-4.528182744979861</v>
+        <v>-4.40533800125122</v>
       </c>
       <c r="D7" t="n">
-        <v>7.154003858566278</v>
+        <v>8.189027309417723</v>
       </c>
       <c r="E7" t="n">
-        <v>4.620719850063325</v>
+        <v>3.551703810691835</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1960877478122711</v>
+        <v>-0.1134682223200798</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6270532011985779</v>
+        <v>0.6869179606437683</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.06856962293386459</v>
+        <v>-0.2023491114377975</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-5.236727142333985</v>
+        <v>-4.528182744979861</v>
       </c>
       <c r="D8" t="n">
-        <v>5.354243278503416</v>
+        <v>7.154003858566278</v>
       </c>
       <c r="E8" t="n">
-        <v>5.061923789978028</v>
+        <v>4.620719850063325</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6217080950737</v>
+        <v>-0.1960877478122711</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2063197344541549</v>
+        <v>0.6270532011985779</v>
       </c>
       <c r="H8" t="n">
-        <v>-1.041983366012573</v>
+        <v>-0.06856962293386459</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-5.258063554763795</v>
+        <v>-5.236727142333985</v>
       </c>
       <c r="D9" t="n">
-        <v>5.088717103004436</v>
+        <v>5.354243278503416</v>
       </c>
       <c r="E9" t="n">
-        <v>5.500368356704722</v>
+        <v>5.061923789978028</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1171334087848663</v>
+        <v>0.6217080950737</v>
       </c>
       <c r="G9" t="n">
-        <v>1.447597861289978</v>
+        <v>0.2063197344541549</v>
       </c>
       <c r="H9" t="n">
-        <v>-3.771023988723755</v>
+        <v>-1.041983366012573</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-4.872933006286623</v>
+        <v>-5.258063554763795</v>
       </c>
       <c r="D10" t="n">
-        <v>10.60090007781982</v>
+        <v>5.088717103004436</v>
       </c>
       <c r="E10" t="n">
-        <v>2.667490434646607</v>
+        <v>5.500368356704722</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1485929638147354</v>
+        <v>0.1171334087848663</v>
       </c>
       <c r="G10" t="n">
-        <v>-2.555707454681396</v>
+        <v>1.447597861289978</v>
       </c>
       <c r="H10" t="n">
-        <v>-3.479946613311768</v>
+        <v>-3.771023988723755</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-0.9181296348571681</v>
+        <v>-4.872933006286623</v>
       </c>
       <c r="D11" t="n">
-        <v>8.491318988800044</v>
+        <v>10.60090007781982</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2766812086105288</v>
+        <v>2.667490434646607</v>
       </c>
       <c r="F11" t="n">
-        <v>1.612989664077759</v>
+        <v>-0.1485929638147354</v>
       </c>
       <c r="G11" t="n">
-        <v>3.036305665969849</v>
+        <v>-2.555707454681396</v>
       </c>
       <c r="H11" t="n">
-        <v>-3.449708700180054</v>
+        <v>-3.479946613311768</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>7.330888652801525</v>
+        <v>-0.9181296348571681</v>
       </c>
       <c r="D12" t="n">
-        <v>7.476689434051512</v>
+        <v>8.491318988800044</v>
       </c>
       <c r="E12" t="n">
-        <v>3.909529781341558</v>
+        <v>0.2766812086105288</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2490803003311157</v>
+        <v>1.612989664077759</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.406629085540772</v>
+        <v>3.036305665969849</v>
       </c>
       <c r="H12" t="n">
-        <v>2.534785270690918</v>
+        <v>-3.449708700180054</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>17.60857832431794</v>
+        <v>7.330888652801525</v>
       </c>
       <c r="D13" t="n">
-        <v>8.065273070335389</v>
+        <v>7.476689434051512</v>
       </c>
       <c r="E13" t="n">
-        <v>5.904095327854156</v>
+        <v>3.909529781341558</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09239336848258969</v>
+        <v>-0.2490803003311157</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.676048040390014</v>
+        <v>-4.406629085540772</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.3824016451835632</v>
+        <v>2.534785270690918</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>8.862465858459505</v>
+        <v>17.60857832431794</v>
       </c>
       <c r="D14" t="n">
-        <v>4.974191069602975</v>
+        <v>8.065273070335389</v>
       </c>
       <c r="E14" t="n">
-        <v>2.124806880950939</v>
+        <v>5.904095327854156</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0197004042565822</v>
+        <v>0.09239336848258969</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.9019425511360168</v>
+        <v>-2.676048040390014</v>
       </c>
       <c r="H14" t="n">
-        <v>0.6754642724990845</v>
+        <v>-0.3824016451835632</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5.792156529426575</v>
+        <v>8.862465858459505</v>
       </c>
       <c r="D15" t="n">
-        <v>5.206499457359316</v>
+        <v>4.974191069602975</v>
       </c>
       <c r="E15" t="n">
-        <v>1.24618867635727</v>
+        <v>2.124806880950939</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.173791155219078</v>
+        <v>0.0197004042565822</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.06688974797725671</v>
+        <v>-0.9019425511360168</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.0691804885864257</v>
+        <v>0.6754642724990845</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>6.776297664642335</v>
+        <v>5.792156529426575</v>
       </c>
       <c r="D16" t="n">
-        <v>7.347594261169435</v>
+        <v>5.206499457359316</v>
       </c>
       <c r="E16" t="n">
-        <v>2.1927396774292</v>
+        <v>1.24618867635727</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.3798054754734039</v>
+        <v>-0.173791155219078</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1803579628467559</v>
+        <v>-0.06688974797725671</v>
       </c>
       <c r="H16" t="n">
-        <v>0.7594582438468933</v>
+        <v>-0.0691804885864257</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>7.413076007366181</v>
+        <v>6.776297664642335</v>
       </c>
       <c r="D17" t="n">
-        <v>7.669743299484253</v>
+        <v>7.347594261169435</v>
       </c>
       <c r="E17" t="n">
-        <v>3.059547257423401</v>
+        <v>2.1927396774292</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0276416521519422</v>
+        <v>-0.3798054754734039</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.9390525817871094</v>
+        <v>0.1803579628467559</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1821905523538589</v>
+        <v>0.7594582438468933</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>7.093721461296081</v>
+        <v>7.413076007366181</v>
       </c>
       <c r="D18" t="n">
-        <v>6.682996535301208</v>
+        <v>7.669743299484253</v>
       </c>
       <c r="E18" t="n">
-        <v>3.730484533309937</v>
+        <v>3.059547257423401</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.2503020465373993</v>
+        <v>0.0276416521519422</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.1331686228513717</v>
+        <v>-0.9390525817871094</v>
       </c>
       <c r="H18" t="n">
-        <v>0.2674062550067901</v>
+        <v>0.1821905523538589</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>6.205834448337556</v>
+        <v>7.093721461296081</v>
       </c>
       <c r="D19" t="n">
-        <v>6.63232797384262</v>
+        <v>6.682996535301208</v>
       </c>
       <c r="E19" t="n">
-        <v>3.768983215093614</v>
+        <v>3.730484533309937</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.1275181174278259</v>
+        <v>-0.2503020465373993</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.1400408595800399</v>
+        <v>-0.1331686228513717</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2041817009449005</v>
+        <v>0.2674062550067901</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5.440388536453247</v>
+        <v>6.205834448337556</v>
       </c>
       <c r="D20" t="n">
-        <v>7.528226757049561</v>
+        <v>6.63232797384262</v>
       </c>
       <c r="E20" t="n">
-        <v>3.279619407653808</v>
+        <v>3.768983215093614</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0177150927484035</v>
+        <v>-0.1275181174278259</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.0038179077673703</v>
+        <v>-0.1400408595800399</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0290160998702049</v>
+        <v>0.2041817009449005</v>
       </c>
     </row>
     <row r="21">
@@ -1017,50 +1017,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4.920149981975555</v>
+        <v>5.440388536453247</v>
       </c>
       <c r="D21" t="n">
-        <v>7.996720600128174</v>
+        <v>7.528226757049561</v>
       </c>
       <c r="E21" t="n">
-        <v>3.424616485834122</v>
+        <v>3.279619407653808</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0416915528476238</v>
+        <v>0.0177150927484035</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0540615729987621</v>
+        <v>-0.0038179077673703</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.1221730485558509</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>2000</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>falling</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>4.804476237297058</v>
-      </c>
-      <c r="D22" t="n">
-        <v>7.717824459075928</v>
-      </c>
-      <c r="E22" t="n">
-        <v>3.153643488883973</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.0058032199740409</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-0.0656680166721344</v>
-      </c>
-      <c r="H22" t="n">
-        <v>-0.0862847194075584</v>
+        <v>0.0290160998702049</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-25_18-01-29/data_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-01-29/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-3.729709470272064</v>
+        <v>-3.557232761383056</v>
       </c>
       <c r="D2" t="n">
-        <v>9.457800364494323</v>
+        <v>9.801355552673339</v>
       </c>
       <c r="E2" t="n">
-        <v>0.187229474633932</v>
+        <v>0.01679347753524785</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0209221355617046</v>
+        <v>-0.1624901592731475</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.0198531206697225</v>
+        <v>0.1201877370476722</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.0239764600992202</v>
+        <v>0.1788308024406433</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-3.674985194206238</v>
+        <v>-3.684299826622009</v>
       </c>
       <c r="D3" t="n">
-        <v>9.404587173461914</v>
+        <v>9.67076587677002</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3419130772352217</v>
+        <v>0.04418391920626155</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.0395535230636596</v>
+        <v>0.06856962293386459</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0210748501121997</v>
+        <v>-0.06704246252775189</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.0496328026056289</v>
+        <v>0.1534798890352249</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-3.945914745330811</v>
+        <v>-3.839793586730957</v>
       </c>
       <c r="D4" t="n">
-        <v>9.500829362869263</v>
+        <v>9.701957559585571</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6805746570229532</v>
+        <v>0.08396954610943785</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0119118718430399</v>
+        <v>0.0235183127224445</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0239764600992202</v>
+        <v>-0.0152716310694813</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.0226020142436027</v>
+        <v>0.030695978552103</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-3.8448965549469</v>
+        <v>-3.847879505157471</v>
       </c>
       <c r="D5" t="n">
-        <v>9.112732887268068</v>
+        <v>9.791793012619019</v>
       </c>
       <c r="E5" t="n">
-        <v>1.50640323758125</v>
+        <v>0.2833944983780385</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0048869219608604</v>
+        <v>0.078801617026329</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.0102319931611418</v>
+        <v>0.009010262787342</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0267253536731004</v>
+        <v>-0.0384845100343227</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-3.954125237464904</v>
+        <v>-3.597369003295899</v>
       </c>
       <c r="D6" t="n">
-        <v>8.554272603988649</v>
+        <v>9.792463493347167</v>
       </c>
       <c r="E6" t="n">
-        <v>2.520113927125929</v>
+        <v>0.5209171175956726</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1745547503232956</v>
+        <v>0.0911716371774673</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1945605874061584</v>
+        <v>0.0236710291355848</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0557414554059505</v>
+        <v>-0.0128281703218817</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-4.40533800125122</v>
+        <v>-3.581359481811524</v>
       </c>
       <c r="D7" t="n">
-        <v>8.189027309417723</v>
+        <v>9.727484250068665</v>
       </c>
       <c r="E7" t="n">
-        <v>3.551703810691835</v>
+        <v>0.4699014097452164</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1134682223200798</v>
+        <v>0.0241291765123605</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6869179606437683</v>
+        <v>-0.0087048299610614</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.2023491114377975</v>
+        <v>-0.0103847095742821</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-4.528182744979861</v>
+        <v>-3.805133938789368</v>
       </c>
       <c r="D8" t="n">
-        <v>7.154003858566278</v>
+        <v>9.641714334487917</v>
       </c>
       <c r="E8" t="n">
-        <v>4.620719850063325</v>
+        <v>0.3316636346280575</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1960877478122711</v>
+        <v>0.0088575463742017</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6270532011985779</v>
+        <v>0.0404698215425014</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.06856962293386459</v>
+        <v>0.0618501044809818</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-5.236727142333985</v>
+        <v>-3.644986343383789</v>
       </c>
       <c r="D9" t="n">
-        <v>5.354243278503416</v>
+        <v>9.586582708358765</v>
       </c>
       <c r="E9" t="n">
-        <v>5.061923789978028</v>
+        <v>0.1923969518393278</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6217080950737</v>
+        <v>-0.0404698215425014</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2063197344541549</v>
+        <v>-0.0221438650041818</v>
       </c>
       <c r="H9" t="n">
-        <v>-1.041983366012573</v>
+        <v>0.0143553335219621</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-5.258063554763795</v>
+        <v>-3.727581739425659</v>
       </c>
       <c r="D10" t="n">
-        <v>5.088717103004436</v>
+        <v>9.62705430984497</v>
       </c>
       <c r="E10" t="n">
-        <v>5.500368356704722</v>
+        <v>0.3099611997604369</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1171334087848663</v>
+        <v>0.0478002056479454</v>
       </c>
       <c r="G10" t="n">
-        <v>1.447597861289978</v>
+        <v>-0.022754730656743</v>
       </c>
       <c r="H10" t="n">
-        <v>-3.771023988723755</v>
+        <v>0.08124507963657369</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-4.872933006286623</v>
+        <v>-3.772140645980835</v>
       </c>
       <c r="D11" t="n">
-        <v>10.60090007781982</v>
+        <v>9.524589729309081</v>
       </c>
       <c r="E11" t="n">
-        <v>2.667490434646607</v>
+        <v>0.2081888042390346</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1485929638147354</v>
+        <v>0.0325285755097866</v>
       </c>
       <c r="G11" t="n">
-        <v>-2.555707454681396</v>
+        <v>0.0065668015740811</v>
       </c>
       <c r="H11" t="n">
-        <v>-3.479946613311768</v>
+        <v>0.0574213340878486</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.9181296348571681</v>
+        <v>-4.169818592071533</v>
       </c>
       <c r="D12" t="n">
-        <v>8.491318988800044</v>
+        <v>9.43976936340332</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2766812086105288</v>
+        <v>0.4335370913147927</v>
       </c>
       <c r="F12" t="n">
-        <v>1.612989664077759</v>
+        <v>-0.0219911485910415</v>
       </c>
       <c r="G12" t="n">
-        <v>3.036305665969849</v>
+        <v>0.0610865242779254</v>
       </c>
       <c r="H12" t="n">
-        <v>-3.449708700180054</v>
+        <v>0.0355829000473022</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>7.330888652801525</v>
+        <v>-3.96463143825531</v>
       </c>
       <c r="D13" t="n">
-        <v>7.476689434051512</v>
+        <v>9.59680449962616</v>
       </c>
       <c r="E13" t="n">
-        <v>3.909529781341558</v>
+        <v>0.3559434115886688</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.2490803003311157</v>
+        <v>-0.0038179077673703</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.406629085540772</v>
+        <v>0.0641408488154411</v>
       </c>
       <c r="H13" t="n">
-        <v>2.534785270690918</v>
+        <v>-0.0708603709936142</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>17.60857832431794</v>
+        <v>-3.995069694519043</v>
       </c>
       <c r="D14" t="n">
-        <v>8.065273070335389</v>
+        <v>9.550227546691893</v>
       </c>
       <c r="E14" t="n">
-        <v>5.904095327854156</v>
+        <v>0.2403170883655548</v>
       </c>
       <c r="F14" t="n">
-        <v>0.09239336848258969</v>
+        <v>0.0064140851609408</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.676048040390014</v>
+        <v>-0.0274889357388019</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.3824016451835632</v>
+        <v>-0.0403171069920063</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>8.862465858459505</v>
+        <v>-3.729709470272064</v>
       </c>
       <c r="D15" t="n">
-        <v>4.974191069602975</v>
+        <v>9.457800364494323</v>
       </c>
       <c r="E15" t="n">
-        <v>2.124806880950939</v>
+        <v>0.187229474633932</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0197004042565822</v>
+        <v>0.0209221355617046</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.9019425511360168</v>
+        <v>-0.0198531206697225</v>
       </c>
       <c r="H15" t="n">
-        <v>0.6754642724990845</v>
+        <v>-0.0239764600992202</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5.792156529426575</v>
+        <v>-3.674985194206238</v>
       </c>
       <c r="D16" t="n">
-        <v>5.206499457359316</v>
+        <v>9.404587173461914</v>
       </c>
       <c r="E16" t="n">
-        <v>1.24618867635727</v>
+        <v>0.3419130772352217</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.173791155219078</v>
+        <v>-0.0395535230636596</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.06688974797725671</v>
+        <v>0.0210748501121997</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.0691804885864257</v>
+        <v>-0.0496328026056289</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>6.776297664642335</v>
+        <v>-3.945914745330811</v>
       </c>
       <c r="D17" t="n">
-        <v>7.347594261169435</v>
+        <v>9.500829362869263</v>
       </c>
       <c r="E17" t="n">
-        <v>2.1927396774292</v>
+        <v>0.6805746570229532</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.3798054754734039</v>
+        <v>0.0119118718430399</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1803579628467559</v>
+        <v>0.0239764600992202</v>
       </c>
       <c r="H17" t="n">
-        <v>0.7594582438468933</v>
+        <v>-0.0226020142436027</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>7.413076007366181</v>
+        <v>-3.8448965549469</v>
       </c>
       <c r="D18" t="n">
-        <v>7.669743299484253</v>
+        <v>9.112732887268068</v>
       </c>
       <c r="E18" t="n">
-        <v>3.059547257423401</v>
+        <v>1.50640323758125</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0276416521519422</v>
+        <v>0.0048869219608604</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.9390525817871094</v>
+        <v>-0.0102319931611418</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1821905523538589</v>
+        <v>0.0267253536731004</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>7.093721461296081</v>
+        <v>-3.954125237464904</v>
       </c>
       <c r="D19" t="n">
-        <v>6.682996535301208</v>
+        <v>8.554272603988649</v>
       </c>
       <c r="E19" t="n">
-        <v>3.730484533309937</v>
+        <v>2.520113927125929</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.2503020465373993</v>
+        <v>-0.1745547503232956</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.1331686228513717</v>
+        <v>0.1945605874061584</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2674062550067901</v>
+        <v>0.0557414554059505</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>6.205834448337556</v>
+        <v>-4.40533800125122</v>
       </c>
       <c r="D20" t="n">
-        <v>6.63232797384262</v>
+        <v>8.189027309417723</v>
       </c>
       <c r="E20" t="n">
-        <v>3.768983215093614</v>
+        <v>3.551703810691835</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.1275181174278259</v>
+        <v>-0.1134682223200798</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.1400408595800399</v>
+        <v>0.6869179606437683</v>
       </c>
       <c r="H20" t="n">
-        <v>0.2041817009449005</v>
+        <v>-0.2023491114377975</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5.440388536453247</v>
+        <v>-4.528182744979861</v>
       </c>
       <c r="D21" t="n">
-        <v>7.528226757049561</v>
+        <v>7.154003858566278</v>
       </c>
       <c r="E21" t="n">
-        <v>3.279619407653808</v>
+        <v>4.620719850063325</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0177150927484035</v>
+        <v>-0.1960877478122711</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.0038179077673703</v>
+        <v>0.6270532011985779</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0290160998702049</v>
+        <v>-0.06856962293386459</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>-5.236727142333985</v>
+      </c>
+      <c r="D22" t="n">
+        <v>5.354243278503416</v>
+      </c>
+      <c r="E22" t="n">
+        <v>5.061923789978028</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.6217080950737</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.2063197344541549</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-1.041983366012573</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>-5.258063554763795</v>
+      </c>
+      <c r="D23" t="n">
+        <v>5.088717103004436</v>
+      </c>
+      <c r="E23" t="n">
+        <v>5.500368356704722</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.1171334087848663</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.447597861289978</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-3.771023988723755</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>-4.872933006286623</v>
+      </c>
+      <c r="D24" t="n">
+        <v>10.60090007781982</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2.667490434646607</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-0.1485929638147354</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-2.555707454681396</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-3.479946613311768</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.9181296348571681</v>
+      </c>
+      <c r="D25" t="n">
+        <v>8.491318988800044</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.2766812086105288</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1.612989664077759</v>
+      </c>
+      <c r="G25" t="n">
+        <v>3.036305665969849</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-3.449708700180054</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>7.330888652801525</v>
+      </c>
+      <c r="D26" t="n">
+        <v>7.476689434051512</v>
+      </c>
+      <c r="E26" t="n">
+        <v>3.909529781341558</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-0.2490803003311157</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-4.406629085540772</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2.534785270690918</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>17.60857832431794</v>
+      </c>
+      <c r="D27" t="n">
+        <v>8.065273070335389</v>
+      </c>
+      <c r="E27" t="n">
+        <v>5.904095327854156</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.09239336848258969</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-2.676048040390014</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-0.3824016451835632</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>8.862465858459505</v>
+      </c>
+      <c r="D28" t="n">
+        <v>4.974191069602975</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2.124806880950939</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.0197004042565822</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-0.9019425511360168</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.6754642724990845</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>5.792156529426575</v>
+      </c>
+      <c r="D29" t="n">
+        <v>5.206499457359316</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1.24618867635727</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.173791155219078</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-0.06688974797725671</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-0.0691804885864257</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>6.776297664642335</v>
+      </c>
+      <c r="D30" t="n">
+        <v>7.347594261169435</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2.1927396774292</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-0.3798054754734039</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.1803579628467559</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.7594582438468933</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>7.413076007366181</v>
+      </c>
+      <c r="D31" t="n">
+        <v>7.669743299484253</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3.059547257423401</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.0276416521519422</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-0.9390525817871094</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.1821905523538589</v>
       </c>
     </row>
   </sheetData>
